--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,102 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ETC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>810.2435794800001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01200000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.912679374280009</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ADA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>810.2435794800001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01200000000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.912679374280009</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OMG</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>35.35100876000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.02400677957526466</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.8840148838245706</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,6 +769,166 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Swing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BTC</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>598.28569878</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.004265938705774587</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-3.150535818316997</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BAT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>583.8957931599999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.02747431043807461</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-16.62603007792364</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>THETA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>582.7311941200001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01200000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.410043135320007</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>RUNE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1347.36413372</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.03551969101317336</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-49.20532184568639</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>HNT</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>762.4993043200001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.01200000000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8.387492347520009</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,6 +929,102 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>QTUM</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>772.0707709733333</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14.66934464849335</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>RUNE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>771.10979004</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.03131756992397293</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-24.92039455867778</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>HNT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>781.28425524</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14.84440084956001</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,6 +1025,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Swing</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BTC</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>401.77854695</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.01796868050578246</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-7.62120889117207</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,6 +1057,70 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44345</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ADA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1188.273648533333</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-48.7192195898667</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44345</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ZEC</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1187.80270084</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-48.69991073444004</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1185,6 +1185,70 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BTC</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>150</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.350000000000004</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>300</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-12.30000000000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,6 +1249,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>FIL</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1829.14837156</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.00404559414127098</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.570843563938489</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,6 +1281,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>HNT</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1357.0125896125</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.04000000000000004</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-55.63751617411255</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,6 +1313,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>EGLD</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1355.67751169</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="G28" t="n">
+        <v>66.42819807281006</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1345,6 +1345,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>LTC</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1366.205538</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="G29" t="n">
+        <v>66.94407136200007</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1377,6 +1377,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>TRX</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1368.55940845</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="G30" t="n">
+        <v>67.05941101405006</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,6 +1409,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BCH</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1368.2285896125</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="G31" t="n">
+        <v>39.67862909876253</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1441,6 +1441,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>EOS</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1365.380669</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="G32" t="n">
+        <v>39.59603940100003</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>XRP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1367.957372816667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="G5" t="n">
+        <v>67.02991126801673</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -37,10 +37,10 @@
     <t xml:space="preserve">investment</t>
   </si>
   <si>
-    <t xml:space="preserve">profit_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profit</t>
+    <t xml:space="preserve">rate_profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realized_profit</t>
   </si>
   <si>
     <t xml:space="preserve">win</t>
@@ -167,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,6 +178,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -200,10 +204,10 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -235,26 +239,26 @@
       <c r="A2" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>1368.2285896125</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="3" t="n">
         <f aca="false">G2/E2</f>
         <v>0.029</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="3" t="n">
         <v>39.6786290987625</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -262,26 +266,26 @@
       <c r="A3" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>1365.380669</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="3" t="n">
         <f aca="false">G3/E3</f>
         <v>0.029</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="3" t="n">
         <v>39.596039401</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -289,26 +293,26 @@
       <c r="A4" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>1661.489636125</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="3" t="n">
         <f aca="false">G4/E4</f>
         <v>0.029</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="3" t="n">
         <v>48.183199447625</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -316,26 +320,26 @@
       <c r="A5" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>1367.95737281667</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="3" t="n">
         <f aca="false">G5/E5</f>
         <v>0.049</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="3" t="n">
         <v>67.0299112680167</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -343,27 +347,27 @@
       <c r="A6" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <f aca="false">422.11+38.56+130.09+1069.4</f>
         <v>1660.16</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="3" t="n">
         <f aca="false">G6/E6</f>
         <v>0.0307199306090979</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -371,28 +375,28 @@
       <c r="A7" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="n">
         <f aca="false">334.64+966.34+252.64+25.26</f>
         <v>1578.88</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="3" t="n">
         <f aca="false">G7/E7</f>
         <v>0.0269938184029185</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="3" t="n">
         <f aca="false">7.71+3.91+12.44+2.38+15.67+0.51</f>
         <v>42.62</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -400,28 +404,28 @@
       <c r="A8" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="n">
         <f aca="false">1013.7+80+618.82</f>
         <v>1712.52</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="3" t="n">
         <f aca="false">G8/E8</f>
         <v>0.0284376240861421</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="3" t="n">
         <f aca="false">17.62+2.27+28.81</f>
         <v>48.7</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -429,28 +433,28 @@
       <c r="A9" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="n">
         <f aca="false">8.06*22+874.25+389.03</f>
         <v>1440.6</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="3" t="n">
         <f aca="false">G9/E9</f>
         <v>0.0505039566847147</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="3" t="n">
         <f aca="false">0.408*22+44.14+19.64</f>
         <v>72.756</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -458,28 +462,28 @@
       <c r="A10" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <f aca="false">30.7+59.48+5301.26</f>
         <v>5391.44</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="3" t="n">
         <f aca="false">G10/E10</f>
         <v>-0.0418700755271319</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="3" t="n">
         <f aca="false">-1.27-2.47-222</f>
         <v>-225.74</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -487,28 +491,28 @@
       <c r="A11" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <f aca="false">75.84+146.93+37.91+306.27+17.6+16.92+1134.8</f>
         <v>1736.27</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="3" t="n">
         <f aca="false">G11/E11</f>
         <v>-0.0442615491830188</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="3" t="n">
         <f aca="false">-3.16-6.14-1.58-16.99-0.73-0.7-47.55</f>
         <v>-76.85</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,28 +520,28 @@
       <c r="A12" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <f aca="false">271.31+16.53</f>
         <v>287.84</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="3" t="n">
         <f aca="false">G12/E12</f>
         <v>-0.0428015564202335</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="3" t="n">
         <f aca="false">-11.62-0.7</f>
         <v>-12.32</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -545,26 +549,26 @@
       <c r="A13" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>287.58</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="3" t="n">
         <f aca="false">G13/E13</f>
         <v>-0.0422491132902149</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="3" t="n">
         <v>-12.15</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">position</t>
   </si>
   <si>
-    <t xml:space="preserve">investment</t>
+    <t xml:space="preserve">amount</t>
   </si>
   <si>
     <t xml:space="preserve">rate_profit</t>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">WAVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRX</t>
   </si>
 </sst>
 </file>
@@ -204,10 +207,10 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -570,6 +573,149 @@
       </c>
       <c r="H13" s="3" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <f aca="false">21.55+14+1563.78</f>
+        <v>1599.33</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <f aca="false">G14/E14</f>
+        <v>0.0120738059062232</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <f aca="false">0.26+0.16+18.89</f>
+        <v>19.31</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <f aca="false">61.7+230.82+5.3+12.92+146.72+1144.25</f>
+        <v>1601.71</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <f aca="false">G15/E15</f>
+        <v>0.00953356100667412</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <f aca="false">0.59+2.22+0.05+0.12+1.41+10.88</f>
+        <v>15.27</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <f aca="false">69.55+44.51+855.71+145.2+493.11</f>
+        <v>1608.08</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <f aca="false">G16/E16</f>
+        <v>0.012082732202378</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <f aca="false">0.84+0.54+10.36+1.75+5.94</f>
+        <v>19.43</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <f aca="false">1337+10.42+43.77+11.81+198</f>
+        <v>1601</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <f aca="false">G17/E17</f>
+        <v>0.00567145534041224</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <f aca="false">7.65+0.05+0.24+0.06+1.08</f>
+        <v>9.08</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1607.26</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <f aca="false">G18/E18</f>
+        <v>0.00987394696564339</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Data/coin.xlsx
+++ b/Data/coin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,6 +1057,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Short-term</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ICX</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>800</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="G20" t="n">
+        <v>39.20000000000003</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
